--- a/va_facility_data_2025-02-20/Fort Wayne VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Wayne%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Wayne VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Wayne%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R50f38f55985d41a6895fc7316f505651"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R86f48d4a46f4439396c655c5abdf2eb6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ea6358d563f45ca98ce8e10cbc9a25a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc2d9589cd464c3f96eb7cede599d29c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdb4bb64747b6469cb9340177eb6dc526"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re190ea23f31c4b8e8d38a4b32449892f"/>
   </x:sheets>
 </x:workbook>
 </file>
